--- a/biology/Zoologie/Gobiopsis/Gobiopsis.xlsx
+++ b/biology/Zoologie/Gobiopsis/Gobiopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobiopsis est un genre de poissons de la famille des Gobiidés (Gobiidae) natif de l'océan Indien et de l'océan Pacifique.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il y a actuellement 15 espèces reconnues dans ce genre :
 Gobiopsis angustifrons Lachner &amp; McKinney, 1978
@@ -520,14 +534,14 @@
 Gobiopsis bravoi (Herre, 1940)
 Gobiopsis canalis Lachner &amp; McKinney, 1978
 Gobiopsis exigua Lachner &amp; McKinney, 1979
-Gobiopsis liolepis (Koumans, 1931)[1]
+Gobiopsis liolepis (Koumans, 1931)
 Gobiopsis macrostoma Steindachner, 1861
 Gobiopsis malekulae (Herre, 1935)
 Gobiopsis namnas Shibukawa, 2010
 Gobiopsis pinto (J. L. B. Smith, 1947)
 Gobiopsis quinquecincta (H. M. Smith, 1931)
 Gobiopsis springeri Lachner &amp; McKinney, 1979
-Gobiopsis uranophilus Prokofiev, 2016[2]
+Gobiopsis uranophilus Prokofiev, 2016
 Gobiopsis woodsi Lachner &amp; McKinney, 1978</t>
         </is>
       </c>
